--- a/NextFlex/CPL_REV_B.xlsx
+++ b/NextFlex/CPL_REV_B.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -254,6 +254,48 @@
   </si>
   <si>
     <t xml:space="preserve">27.25mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.75mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.75mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.5mm</t>
   </si>
 </sst>
 </file>
@@ -395,10 +437,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ41"/>
+  <dimension ref="A1:AMJ39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1974,40 +2016,107 @@
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>180</v>
+      </c>
+    </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="A34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="A35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="A36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="A37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="A38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4"/>
@@ -2015,20 +2124,6 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
